--- a/Detalle de productos.xlsx
+++ b/Detalle de productos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yo_lu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yo_lu\Desktop\Proyectos\plantillas_modificadas\tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317AD849-1758-4285-81C4-BBED6D04268A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1443F5-B18C-47CB-8A2B-6FB16A0A2158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1110" windowWidth="13680" windowHeight="11385" xr2:uid="{FE10C680-AF32-4576-AD8E-C104949B9052}"/>
+    <workbookView xWindow="14340" yWindow="3420" windowWidth="29100" windowHeight="16500" xr2:uid="{FE10C680-AF32-4576-AD8E-C104949B9052}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -530,21 +530,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2332A509-F5D1-4352-8B15-5216721F78CE}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -552,7 +552,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -576,7 +576,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -592,7 +592,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -600,7 +600,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -608,7 +608,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -616,7 +616,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -632,171 +632,194 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
